--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Nom de la class</t>
   </si>
@@ -96,9 +96,6 @@
     <t>popConnection()</t>
   </si>
   <si>
-    <t xml:space="preserve"> pushConnection(DBConnection connection)</t>
-  </si>
-  <si>
     <t>Column</t>
   </si>
   <si>
@@ -292,6 +289,12 @@
   </si>
   <si>
     <t>Pas de test, Class Utils</t>
+  </si>
+  <si>
+    <t>Fait ?</t>
+  </si>
+  <si>
+    <t>pushConnection(DBConnection connection)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +320,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,9 +348,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C77"/>
+  <dimension ref="A2:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +644,10 @@
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.7109375" customWidth="1"/>
     <col min="3" max="3" width="104.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,425 +657,474 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
         <v>83</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,88 +967,96 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>73</v>
       </c>

--- a/web/test.xlsx
+++ b/web/test.xlsx
@@ -310,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,11 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +675,8 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -842,7 +850,8 @@
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -851,7 +860,8 @@
       <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -860,7 +870,8 @@
       <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -869,7 +880,8 @@
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1015,125 +1027,155 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>65</v>
       </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>66</v>
       </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>67</v>
       </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>68</v>
       </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>69</v>
       </c>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>70</v>
       </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>71</v>
       </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>72</v>
       </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
